--- a/Code/Results/Cases/Case_3_214/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_214/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.981669226482154</v>
+        <v>0.4021169102478837</v>
       </c>
       <c r="C2">
-        <v>0.2172102251529964</v>
+        <v>0.08249588546655673</v>
       </c>
       <c r="D2">
-        <v>0.2807665101361323</v>
+        <v>0.2329709150594965</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.221967626596523</v>
+        <v>1.855214341059622</v>
       </c>
       <c r="G2">
-        <v>0.7910251475261987</v>
+        <v>1.124136189207121</v>
       </c>
       <c r="H2">
-        <v>0.5607121933745987</v>
+        <v>1.105830378752458</v>
       </c>
       <c r="I2">
-        <v>0.504857080768474</v>
+        <v>0.8963089761147387</v>
       </c>
       <c r="J2">
-        <v>0.4312272454450294</v>
+        <v>0.3516043913743943</v>
       </c>
       <c r="K2">
-        <v>1.161927878020606</v>
+        <v>0.4669374073496328</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8515311308875368</v>
+        <v>0.3652612459559919</v>
       </c>
       <c r="C3">
-        <v>0.1880535872547711</v>
+        <v>0.07445181431870651</v>
       </c>
       <c r="D3">
-        <v>0.2457097837536537</v>
+        <v>0.2246172109262261</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.157927236649144</v>
+        <v>1.851231181785494</v>
       </c>
       <c r="G3">
-        <v>0.7568558410720669</v>
+        <v>1.1232769715198</v>
       </c>
       <c r="H3">
-        <v>0.5529631086482851</v>
+        <v>1.110521565025238</v>
       </c>
       <c r="I3">
-        <v>0.5009673533128876</v>
+        <v>0.9010827201968681</v>
       </c>
       <c r="J3">
-        <v>0.3808156503703231</v>
+        <v>0.3404906507548304</v>
       </c>
       <c r="K3">
-        <v>1.007451757505692</v>
+        <v>0.4234718100455268</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7719858467862935</v>
+        <v>0.3427365608944228</v>
       </c>
       <c r="C4">
-        <v>0.1702810970487292</v>
+        <v>0.06953596095317494</v>
       </c>
       <c r="D4">
-        <v>0.2243961459107879</v>
+        <v>0.2195927428210496</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.120944050966528</v>
+        <v>1.849812497413893</v>
       </c>
       <c r="G4">
-        <v>0.7376471838192913</v>
+        <v>1.12344863650091</v>
       </c>
       <c r="H4">
-        <v>0.5492190837458111</v>
+        <v>1.11390247276816</v>
       </c>
       <c r="I4">
-        <v>0.4996456219235093</v>
+        <v>0.9044822053968886</v>
       </c>
       <c r="J4">
-        <v>0.3504500624967477</v>
+        <v>0.3338768537891781</v>
       </c>
       <c r="K4">
-        <v>0.9130893083260503</v>
+        <v>0.3969079353552445</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7396429577695471</v>
+        <v>0.3335843019469564</v>
       </c>
       <c r="C5">
-        <v>0.163065710716765</v>
+        <v>0.06753856571653216</v>
       </c>
       <c r="D5">
-        <v>0.2157577047268546</v>
+        <v>0.2175716492593409</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.106425065062368</v>
+        <v>1.849492392089289</v>
       </c>
       <c r="G5">
-        <v>0.7302378116461199</v>
+        <v>1.123694102252486</v>
       </c>
       <c r="H5">
-        <v>0.547936114167527</v>
+        <v>1.115406040713466</v>
       </c>
       <c r="I5">
-        <v>0.4993619480361602</v>
+        <v>0.9059851726091921</v>
       </c>
       <c r="J5">
-        <v>0.3382091916199812</v>
+        <v>0.3312344071027695</v>
       </c>
       <c r="K5">
-        <v>0.8747349140487017</v>
+        <v>0.3861145151255414</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7342763158924868</v>
+        <v>0.3320662019248175</v>
       </c>
       <c r="C6">
-        <v>0.1618690784189312</v>
+        <v>0.06720725374560743</v>
       </c>
       <c r="D6">
-        <v>0.214325968013469</v>
+        <v>0.2172376461841594</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.104046525931864</v>
+        <v>1.84945481608041</v>
       </c>
       <c r="G6">
-        <v>0.7290319930703077</v>
+        <v>1.123745452853015</v>
       </c>
       <c r="H6">
-        <v>0.5477373962397252</v>
+        <v>1.115663305296891</v>
       </c>
       <c r="I6">
-        <v>0.499329869063299</v>
+        <v>0.9062418410961222</v>
       </c>
       <c r="J6">
-        <v>0.3361842561287887</v>
+        <v>0.3307988127238985</v>
       </c>
       <c r="K6">
-        <v>0.8683715279969704</v>
+        <v>0.3843241933326738</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7715493889311347</v>
+        <v>0.3426130215948717</v>
       </c>
       <c r="C7">
-        <v>0.1701836854348073</v>
+        <v>0.06950899966101076</v>
       </c>
       <c r="D7">
-        <v>0.2242794622016646</v>
+        <v>0.2195653785725966</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.120746053884147</v>
+        <v>1.849807135952346</v>
       </c>
       <c r="G7">
-        <v>0.7375455993970661</v>
+        <v>1.12345123672371</v>
       </c>
       <c r="H7">
-        <v>0.5492008138906073</v>
+        <v>1.113922241018287</v>
       </c>
       <c r="I7">
-        <v>0.499640780903114</v>
+        <v>0.9045019987568175</v>
       </c>
       <c r="J7">
-        <v>0.3502844561972438</v>
+        <v>0.3338410034581472</v>
       </c>
       <c r="K7">
-        <v>0.9125716760882199</v>
+        <v>0.3967622432053304</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9367116051651863</v>
+        <v>0.3893875260666846</v>
       </c>
       <c r="C8">
-        <v>0.2071265852666784</v>
+        <v>0.07971747048952693</v>
       </c>
       <c r="D8">
-        <v>0.2686312858546245</v>
+        <v>0.230068863869576</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.199378964112867</v>
+        <v>1.853627653592042</v>
       </c>
       <c r="G8">
-        <v>0.7788590625459335</v>
+        <v>1.123694612777442</v>
       </c>
       <c r="H8">
-        <v>0.5578222798572341</v>
+        <v>1.107343998889903</v>
       </c>
       <c r="I8">
-        <v>0.5032863087741788</v>
+        <v>0.8978576700586487</v>
       </c>
       <c r="J8">
-        <v>0.4137145017141961</v>
+        <v>0.3477287069307522</v>
       </c>
       <c r="K8">
-        <v>1.108549014514011</v>
+        <v>0.4519248902967092</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.264342466959164</v>
+        <v>0.4819327897465655</v>
       </c>
       <c r="C9">
-        <v>0.2808766515638581</v>
+        <v>0.0999212499359885</v>
       </c>
       <c r="D9">
-        <v>0.357581361484705</v>
+        <v>0.2514950329963597</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.373869693165162</v>
+        <v>1.86928147654973</v>
       </c>
       <c r="G9">
-        <v>0.8752438027626255</v>
+        <v>1.129735770629594</v>
       </c>
       <c r="H9">
-        <v>0.5833654683330138</v>
+        <v>1.098417549325504</v>
       </c>
       <c r="I9">
-        <v>0.5195381517705187</v>
+        <v>0.8885509555989373</v>
       </c>
       <c r="J9">
-        <v>0.5434607376780889</v>
+        <v>0.3766356797592465</v>
       </c>
       <c r="K9">
-        <v>1.497866909567108</v>
+        <v>0.5610745264093566</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.50869893617778</v>
+        <v>0.5504182571932006</v>
       </c>
       <c r="C10">
-        <v>0.3362764716098638</v>
+        <v>0.1148802060982916</v>
       </c>
       <c r="D10">
-        <v>0.424592956953461</v>
+        <v>0.2677411478212832</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.51706055318482</v>
+        <v>1.885780324049605</v>
       </c>
       <c r="G10">
-        <v>0.9574017306357518</v>
+        <v>1.137590338228179</v>
       </c>
       <c r="H10">
-        <v>0.608286040584531</v>
+        <v>1.094285658860514</v>
       </c>
       <c r="I10">
-        <v>0.5379876383848199</v>
+        <v>0.8839923097492601</v>
       </c>
       <c r="J10">
-        <v>0.6431130637584062</v>
+        <v>0.3989050972687949</v>
       </c>
       <c r="K10">
-        <v>1.788700810495925</v>
+        <v>0.6418576777275007</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.620988032843314</v>
+        <v>0.5816798665213696</v>
       </c>
       <c r="C11">
-        <v>0.361846738760363</v>
+        <v>0.1217110847289575</v>
       </c>
       <c r="D11">
-        <v>0.455550024797418</v>
+        <v>0.2752413607164499</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.58609735057766</v>
+        <v>1.894376445159565</v>
       </c>
       <c r="G11">
-        <v>0.9977226759249191</v>
+        <v>1.141910732945959</v>
       </c>
       <c r="H11">
-        <v>0.6211764952808778</v>
+        <v>1.092933778408678</v>
       </c>
       <c r="I11">
-        <v>0.5480281798289681</v>
+        <v>0.8824154266537434</v>
       </c>
       <c r="J11">
-        <v>0.6896471141479736</v>
+        <v>0.4092626362103857</v>
       </c>
       <c r="K11">
-        <v>1.922480436725408</v>
+        <v>0.6787361016440627</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.663701608485184</v>
+        <v>0.5935329906206732</v>
       </c>
       <c r="C12">
-        <v>0.3715920017072847</v>
+        <v>0.1243015136452073</v>
       </c>
       <c r="D12">
-        <v>0.4673507864299893</v>
+        <v>0.2780972341124084</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.612858987950148</v>
+        <v>1.897788752220208</v>
       </c>
       <c r="G12">
-        <v>1.013459110064773</v>
+        <v>1.143654609078226</v>
       </c>
       <c r="H12">
-        <v>0.6263011774242813</v>
+        <v>1.092497811421225</v>
       </c>
       <c r="I12">
-        <v>0.5520886972447272</v>
+        <v>0.8818899137893936</v>
       </c>
       <c r="J12">
-        <v>0.7074649274629792</v>
+        <v>0.413217575230135</v>
       </c>
       <c r="K12">
-        <v>1.973390684614401</v>
+        <v>0.692719453421347</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.654493430059176</v>
+        <v>0.590979545886654</v>
       </c>
       <c r="C13">
-        <v>0.369490253017517</v>
+        <v>0.1237434530047494</v>
       </c>
       <c r="D13">
-        <v>0.464805644388008</v>
+        <v>0.2774814734306119</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.607066879755195</v>
+        <v>1.897046857100705</v>
       </c>
       <c r="G13">
-        <v>1.010048439728692</v>
+        <v>1.143274232141266</v>
       </c>
       <c r="H13">
-        <v>0.6251863263500752</v>
+        <v>1.092588325164371</v>
       </c>
       <c r="I13">
-        <v>0.5512023385642095</v>
+        <v>0.8819999044284685</v>
       </c>
       <c r="J13">
-        <v>0.7036184095187821</v>
+        <v>0.4123643493859674</v>
       </c>
       <c r="K13">
-        <v>1.962414449464433</v>
+        <v>0.689707080626107</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.624498074549507</v>
+        <v>0.5826547311361026</v>
       </c>
       <c r="C14">
-        <v>0.3626471808926226</v>
+        <v>0.121924126315804</v>
       </c>
       <c r="D14">
-        <v>0.4565192572590888</v>
+        <v>0.2754760008315884</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.588286290152254</v>
+        <v>1.894654026625219</v>
       </c>
       <c r="G14">
-        <v>0.9990076807752928</v>
+        <v>1.14205203934047</v>
       </c>
       <c r="H14">
-        <v>0.6215931085453548</v>
+        <v>1.092896388354802</v>
       </c>
       <c r="I14">
-        <v>0.5483569330346043</v>
+        <v>0.8823707560794745</v>
       </c>
       <c r="J14">
-        <v>0.6911089177636143</v>
+        <v>0.4095873541466375</v>
       </c>
       <c r="K14">
-        <v>1.926663594985996</v>
+        <v>0.6798861558757494</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.606150999314963</v>
+        <v>0.5775574877781651</v>
       </c>
       <c r="C15">
-        <v>0.3584640152853353</v>
+        <v>0.1208102207547768</v>
       </c>
       <c r="D15">
-        <v>0.4514540734534762</v>
+        <v>0.2742496339306797</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.576865055861205</v>
+        <v>1.89320882237314</v>
       </c>
       <c r="G15">
-        <v>0.9923071882166994</v>
+        <v>1.141317465543025</v>
       </c>
       <c r="H15">
-        <v>0.6194244709542716</v>
+        <v>1.09309498046882</v>
       </c>
       <c r="I15">
-        <v>0.5466483578961814</v>
+        <v>0.8826072453103819</v>
       </c>
       <c r="J15">
-        <v>0.6834728042594378</v>
+        <v>0.4078906345173294</v>
       </c>
       <c r="K15">
-        <v>1.904799023338143</v>
+        <v>0.673872927375669</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.501385792546415</v>
+        <v>0.5483773619204442</v>
       </c>
       <c r="C16">
-        <v>0.334613591268436</v>
+        <v>0.1144343137687542</v>
       </c>
       <c r="D16">
-        <v>0.4225801914941201</v>
+        <v>0.2672531933570497</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.512632150080051</v>
+        <v>1.885240520811593</v>
       </c>
       <c r="G16">
-        <v>0.9548296338826816</v>
+        <v>1.137323060056758</v>
       </c>
       <c r="H16">
-        <v>0.6074765484281244</v>
+        <v>1.094384633053949</v>
       </c>
       <c r="I16">
-        <v>0.5373664121301189</v>
+        <v>0.8841053755035233</v>
       </c>
       <c r="J16">
-        <v>0.6400981015493841</v>
+        <v>0.3982327864708708</v>
       </c>
       <c r="K16">
-        <v>1.779990929945626</v>
+        <v>0.6394501657024421</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.437425435086794</v>
+        <v>0.5305034858357658</v>
       </c>
       <c r="C17">
-        <v>0.3200829183278699</v>
+        <v>0.1105295454550514</v>
       </c>
       <c r="D17">
-        <v>0.4049949923910106</v>
+        <v>0.2629891623092533</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.474265719446137</v>
+        <v>1.88063179623056</v>
       </c>
       <c r="G17">
-        <v>0.9326232323123236</v>
+        <v>1.135064292212761</v>
       </c>
       <c r="H17">
-        <v>0.6005584897188072</v>
+        <v>1.095311010843005</v>
       </c>
       <c r="I17">
-        <v>0.5321089371716994</v>
+        <v>0.8851518101418776</v>
       </c>
       <c r="J17">
-        <v>0.6138130131880217</v>
+        <v>0.3923662465010693</v>
       </c>
       <c r="K17">
-        <v>1.703829885230448</v>
+        <v>0.6183658893984614</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.400741576116815</v>
+        <v>0.5202330206730608</v>
       </c>
       <c r="C18">
-        <v>0.3117593448741616</v>
+        <v>0.1082860714794549</v>
       </c>
       <c r="D18">
-        <v>0.3949243403098706</v>
+        <v>0.2605469415718744</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.452561529101146</v>
+        <v>1.878083624789241</v>
       </c>
       <c r="G18">
-        <v>0.9201252156765349</v>
+        <v>1.133835426907879</v>
       </c>
       <c r="H18">
-        <v>0.5967243797074673</v>
+        <v>1.095893507544744</v>
       </c>
       <c r="I18">
-        <v>0.5292386826479358</v>
+        <v>0.8858004490424989</v>
       </c>
       <c r="J18">
-        <v>0.5988061016535227</v>
+        <v>0.389013333999003</v>
       </c>
       <c r="K18">
-        <v>1.66016067605085</v>
+        <v>0.6062510068888116</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.388338130721365</v>
+        <v>0.5167573668945806</v>
       </c>
       <c r="C19">
-        <v>0.3089467093971905</v>
+        <v>0.1075268901224149</v>
       </c>
       <c r="D19">
-        <v>0.3915218396526825</v>
+        <v>0.2597218254531128</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.445273544818562</v>
+        <v>1.87723847801314</v>
       </c>
       <c r="G19">
-        <v>0.9159394730414903</v>
+        <v>1.133431420072966</v>
       </c>
       <c r="H19">
-        <v>0.5954505381285884</v>
+        <v>1.096099259368827</v>
       </c>
       <c r="I19">
-        <v>0.5282926403540529</v>
+        <v>0.8860280924976252</v>
       </c>
       <c r="J19">
-        <v>0.5937434991635229</v>
+        <v>0.3878817617006263</v>
       </c>
       <c r="K19">
-        <v>1.645397383951064</v>
+        <v>0.6021512285540211</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.444223108286337</v>
+        <v>0.5324051463537955</v>
       </c>
       <c r="C20">
-        <v>0.3216261406335263</v>
+        <v>0.1109449616972142</v>
       </c>
       <c r="D20">
-        <v>0.4068623552036001</v>
+        <v>0.2634420064202061</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.478311899453786</v>
+        <v>1.8811117772822</v>
       </c>
       <c r="G20">
-        <v>0.9349584237562993</v>
+        <v>1.135297461523123</v>
       </c>
       <c r="H20">
-        <v>0.6012797861724266</v>
+        <v>1.09520725529282</v>
       </c>
       <c r="I20">
-        <v>0.5326525471201649</v>
+        <v>0.8850355749445953</v>
       </c>
       <c r="J20">
-        <v>0.6165993941323222</v>
+        <v>0.3929885375789723</v>
       </c>
       <c r="K20">
-        <v>1.711922953503802</v>
+        <v>0.6206090829429058</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.633302973712176</v>
+        <v>0.5850995261564549</v>
       </c>
       <c r="C21">
-        <v>0.364655385680976</v>
+        <v>0.12245840570111</v>
       </c>
       <c r="D21">
-        <v>0.4589509695400409</v>
+        <v>0.2760646311338348</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.593785316925818</v>
+        <v>1.89535259174238</v>
       </c>
       <c r="G21">
-        <v>1.002237553674917</v>
+        <v>1.142408097362733</v>
       </c>
       <c r="H21">
-        <v>0.6226417518315941</v>
+        <v>1.092803840588644</v>
       </c>
       <c r="I21">
-        <v>0.5491855047949201</v>
+        <v>0.8822598828999233</v>
       </c>
       <c r="J21">
-        <v>0.694777730232957</v>
+        <v>0.4104021348709779</v>
       </c>
       <c r="K21">
-        <v>1.937157357996284</v>
+        <v>0.682770305970763</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.758013219011588</v>
+        <v>0.6196257852151916</v>
       </c>
       <c r="C22">
-        <v>0.3931459591902637</v>
+        <v>0.1300048051198814</v>
       </c>
       <c r="D22">
-        <v>0.4934537726889801</v>
+        <v>0.2844057536617868</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.67289226366465</v>
+        <v>1.905575874166757</v>
       </c>
       <c r="G22">
-        <v>1.048958238524179</v>
+        <v>1.14768403580166</v>
       </c>
       <c r="H22">
-        <v>0.6380320152859014</v>
+        <v>1.091675862290145</v>
       </c>
       <c r="I22">
-        <v>0.5615081713917789</v>
+        <v>0.8808633343313801</v>
       </c>
       <c r="J22">
-        <v>0.747029009282528</v>
+        <v>0.4219739522318662</v>
       </c>
       <c r="K22">
-        <v>2.085843333093436</v>
+        <v>0.7235027173427966</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.691338601632339</v>
+        <v>0.6011905977173626</v>
       </c>
       <c r="C23">
-        <v>0.3779029588431229</v>
+        <v>0.1259751679685337</v>
       </c>
       <c r="D23">
-        <v>0.4749933692694412</v>
+        <v>0.2799455927567749</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.630317814512352</v>
+        <v>1.900035594670442</v>
       </c>
       <c r="G23">
-        <v>1.02375531074432</v>
+        <v>1.144810516033871</v>
       </c>
       <c r="H23">
-        <v>0.6296801349930092</v>
+        <v>1.092237345724484</v>
       </c>
       <c r="I23">
-        <v>0.5547848926545527</v>
+        <v>0.8815704387487173</v>
       </c>
       <c r="J23">
-        <v>0.7190272558233772</v>
+        <v>0.4157803396744555</v>
       </c>
       <c r="K23">
-        <v>2.006337610096864</v>
+        <v>0.7017534418205287</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.441149608953936</v>
+        <v>0.5315453885850445</v>
       </c>
       <c r="C24">
-        <v>0.3209283561349991</v>
+        <v>0.1107571475619693</v>
       </c>
       <c r="D24">
-        <v>0.4060179987657477</v>
+        <v>0.2632372468509061</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.476481525732964</v>
+        <v>1.880894461865211</v>
       </c>
       <c r="G24">
-        <v>0.9339018499197635</v>
+        <v>1.135191828493845</v>
       </c>
       <c r="H24">
-        <v>0.6009532435720359</v>
+        <v>1.095254007708746</v>
       </c>
       <c r="I24">
-        <v>0.5324063081612209</v>
+        <v>0.8850879783893788</v>
       </c>
       <c r="J24">
-        <v>0.6153393468336219</v>
+        <v>0.3927071379976468</v>
       </c>
       <c r="K24">
-        <v>1.708263716414791</v>
+        <v>0.6195949140942787</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.175174489265402</v>
+        <v>0.4568098150937203</v>
       </c>
       <c r="C25">
-        <v>0.260744378342082</v>
+        <v>0.09443553596443621</v>
       </c>
       <c r="D25">
-        <v>0.333261641232184</v>
+        <v>0.2456100567082729</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.324234874430687</v>
+        <v>1.864170622281549</v>
       </c>
       <c r="G25">
-        <v>0.8473294584967306</v>
+        <v>1.127503320700185</v>
       </c>
       <c r="H25">
-        <v>0.5754433074085483</v>
+        <v>1.100406589609989</v>
       </c>
       <c r="I25">
-        <v>0.5140725598285059</v>
+        <v>0.8906691391243342</v>
       </c>
       <c r="J25">
-        <v>0.5076829172214303</v>
+        <v>0.3686352694350319</v>
       </c>
       <c r="K25">
-        <v>1.391838075756112</v>
+        <v>0.531442616872738</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_214/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_214/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4021169102478837</v>
+        <v>0.9816692264819835</v>
       </c>
       <c r="C2">
-        <v>0.08249588546655673</v>
+        <v>0.2172102251530106</v>
       </c>
       <c r="D2">
-        <v>0.2329709150594965</v>
+        <v>0.2807665101362034</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.855214341059622</v>
+        <v>1.221967626596509</v>
       </c>
       <c r="G2">
-        <v>1.124136189207121</v>
+        <v>0.7910251475261703</v>
       </c>
       <c r="H2">
-        <v>1.105830378752458</v>
+        <v>0.5607121933744708</v>
       </c>
       <c r="I2">
-        <v>0.8963089761147387</v>
+        <v>0.504857080768474</v>
       </c>
       <c r="J2">
-        <v>0.3516043913743943</v>
+        <v>0.4312272454450152</v>
       </c>
       <c r="K2">
-        <v>0.4669374073496328</v>
+        <v>1.161927878020663</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3652612459559919</v>
+        <v>0.8515311308874232</v>
       </c>
       <c r="C3">
-        <v>0.07445181431870651</v>
+        <v>0.1880535872548705</v>
       </c>
       <c r="D3">
-        <v>0.2246172109262261</v>
+        <v>0.2457097837537674</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.851231181785494</v>
+        <v>1.157927236649158</v>
       </c>
       <c r="G3">
-        <v>1.1232769715198</v>
+        <v>0.7568558410720954</v>
       </c>
       <c r="H3">
-        <v>1.110521565025238</v>
+        <v>0.5529631086482993</v>
       </c>
       <c r="I3">
-        <v>0.9010827201968681</v>
+        <v>0.5009673533128947</v>
       </c>
       <c r="J3">
-        <v>0.3404906507548304</v>
+        <v>0.3808156503703799</v>
       </c>
       <c r="K3">
-        <v>0.4234718100455268</v>
+        <v>1.00745175750572</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3427365608944228</v>
+        <v>0.7719858467861798</v>
       </c>
       <c r="C4">
-        <v>0.06953596095317494</v>
+        <v>0.1702810970482602</v>
       </c>
       <c r="D4">
-        <v>0.2195927428210496</v>
+        <v>0.2243961459109016</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.849812497413893</v>
+        <v>1.120944050966528</v>
       </c>
       <c r="G4">
-        <v>1.12344863650091</v>
+        <v>0.7376471838192344</v>
       </c>
       <c r="H4">
-        <v>1.11390247276816</v>
+        <v>0.5492190837456974</v>
       </c>
       <c r="I4">
-        <v>0.9044822053968886</v>
+        <v>0.4996456219235093</v>
       </c>
       <c r="J4">
-        <v>0.3338768537891781</v>
+        <v>0.3504500624967619</v>
       </c>
       <c r="K4">
-        <v>0.3969079353552445</v>
+        <v>0.9130893083261071</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3335843019469564</v>
+        <v>0.7396429577695756</v>
       </c>
       <c r="C5">
-        <v>0.06753856571653216</v>
+        <v>0.1630657107171061</v>
       </c>
       <c r="D5">
-        <v>0.2175716492593409</v>
+        <v>0.215757704726613</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.849492392089289</v>
+        <v>1.106425065062382</v>
       </c>
       <c r="G5">
-        <v>1.123694102252486</v>
+        <v>0.7302378116461341</v>
       </c>
       <c r="H5">
-        <v>1.115406040713466</v>
+        <v>0.5479361141674133</v>
       </c>
       <c r="I5">
-        <v>0.9059851726091921</v>
+        <v>0.4993619480361957</v>
       </c>
       <c r="J5">
-        <v>0.3312344071027695</v>
+        <v>0.3382091916199244</v>
       </c>
       <c r="K5">
-        <v>0.3861145151255414</v>
+        <v>0.8747349140487586</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3320662019248175</v>
+        <v>0.7342763158924868</v>
       </c>
       <c r="C6">
-        <v>0.06720725374560743</v>
+        <v>0.1618690784191585</v>
       </c>
       <c r="D6">
-        <v>0.2172376461841594</v>
+        <v>0.2143259680134122</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.84945481608041</v>
+        <v>1.104046525931864</v>
       </c>
       <c r="G6">
-        <v>1.123745452853015</v>
+        <v>0.7290319930702793</v>
       </c>
       <c r="H6">
-        <v>1.115663305296891</v>
+        <v>0.5477373962397252</v>
       </c>
       <c r="I6">
-        <v>0.9062418410961222</v>
+        <v>0.499329869063299</v>
       </c>
       <c r="J6">
-        <v>0.3307988127238985</v>
+        <v>0.3361842561287034</v>
       </c>
       <c r="K6">
-        <v>0.3843241933326738</v>
+        <v>0.8683715279970841</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3426130215948717</v>
+        <v>0.771549388931021</v>
       </c>
       <c r="C7">
-        <v>0.06950899966101076</v>
+        <v>0.1701836854346368</v>
       </c>
       <c r="D7">
-        <v>0.2195653785725966</v>
+        <v>0.2242794622019488</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.849807135952346</v>
+        <v>1.120746053884119</v>
       </c>
       <c r="G7">
-        <v>1.12345123672371</v>
+        <v>0.7375455993970803</v>
       </c>
       <c r="H7">
-        <v>1.113922241018287</v>
+        <v>0.5492008138904936</v>
       </c>
       <c r="I7">
-        <v>0.9045019987568175</v>
+        <v>0.4996407809031069</v>
       </c>
       <c r="J7">
-        <v>0.3338410034581472</v>
+        <v>0.3502844561972012</v>
       </c>
       <c r="K7">
-        <v>0.3967622432053304</v>
+        <v>0.9125716760881915</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3893875260666846</v>
+        <v>0.9367116051652431</v>
       </c>
       <c r="C8">
-        <v>0.07971747048952693</v>
+        <v>0.2071265852666926</v>
       </c>
       <c r="D8">
-        <v>0.230068863869576</v>
+        <v>0.2686312858544539</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.853627653592042</v>
+        <v>1.199378964112881</v>
       </c>
       <c r="G8">
-        <v>1.123694612777442</v>
+        <v>0.7788590625459335</v>
       </c>
       <c r="H8">
-        <v>1.107343998889903</v>
+        <v>0.5578222798572341</v>
       </c>
       <c r="I8">
-        <v>0.8978576700586487</v>
+        <v>0.503286308774193</v>
       </c>
       <c r="J8">
-        <v>0.3477287069307522</v>
+        <v>0.413714501714125</v>
       </c>
       <c r="K8">
-        <v>0.4519248902967092</v>
+        <v>1.108549014513954</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4819327897465655</v>
+        <v>1.264342466958993</v>
       </c>
       <c r="C9">
-        <v>0.0999212499359885</v>
+        <v>0.2808766515636307</v>
       </c>
       <c r="D9">
-        <v>0.2514950329963597</v>
+        <v>0.3575813614848187</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.86928147654973</v>
+        <v>1.373869693165162</v>
       </c>
       <c r="G9">
-        <v>1.129735770629594</v>
+        <v>0.8752438027626113</v>
       </c>
       <c r="H9">
-        <v>1.098417549325504</v>
+        <v>0.583365468333028</v>
       </c>
       <c r="I9">
-        <v>0.8885509555989373</v>
+        <v>0.51953815177054</v>
       </c>
       <c r="J9">
-        <v>0.3766356797592465</v>
+        <v>0.543460737678032</v>
       </c>
       <c r="K9">
-        <v>0.5610745264093566</v>
+        <v>1.497866909567193</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5504182571932006</v>
+        <v>1.50869893617778</v>
       </c>
       <c r="C10">
-        <v>0.1148802060982916</v>
+        <v>0.336276471610006</v>
       </c>
       <c r="D10">
-        <v>0.2677411478212832</v>
+        <v>0.4245929569533189</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.885780324049605</v>
+        <v>1.517060553184805</v>
       </c>
       <c r="G10">
-        <v>1.137590338228179</v>
+        <v>0.9574017306357661</v>
       </c>
       <c r="H10">
-        <v>1.094285658860514</v>
+        <v>0.6082860405845025</v>
       </c>
       <c r="I10">
-        <v>0.8839923097492601</v>
+        <v>0.5379876383848128</v>
       </c>
       <c r="J10">
-        <v>0.3989050972687949</v>
+        <v>0.6431130637583777</v>
       </c>
       <c r="K10">
-        <v>0.6418576777275007</v>
+        <v>1.788700810495982</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5816798665213696</v>
+        <v>1.620988032843172</v>
       </c>
       <c r="C11">
-        <v>0.1217110847289575</v>
+        <v>0.3618467387602209</v>
       </c>
       <c r="D11">
-        <v>0.2752413607164499</v>
+        <v>0.4555500247973612</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.894376445159565</v>
+        <v>1.586097350577674</v>
       </c>
       <c r="G11">
-        <v>1.141910732945959</v>
+        <v>0.9977226759248907</v>
       </c>
       <c r="H11">
-        <v>1.092933778408678</v>
+        <v>0.621176495280892</v>
       </c>
       <c r="I11">
-        <v>0.8824154266537434</v>
+        <v>0.5480281798289752</v>
       </c>
       <c r="J11">
-        <v>0.4092626362103857</v>
+        <v>0.6896471141479168</v>
       </c>
       <c r="K11">
-        <v>0.6787361016440627</v>
+        <v>1.92248043672555</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5935329906206732</v>
+        <v>1.663701608485269</v>
       </c>
       <c r="C12">
-        <v>0.1243015136452073</v>
+        <v>0.3715920017074268</v>
       </c>
       <c r="D12">
-        <v>0.2780972341124084</v>
+        <v>0.4673507864300461</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.897788752220208</v>
+        <v>1.612858987950133</v>
       </c>
       <c r="G12">
-        <v>1.143654609078226</v>
+        <v>1.013459110064716</v>
       </c>
       <c r="H12">
-        <v>1.092497811421225</v>
+        <v>0.6263011774242813</v>
       </c>
       <c r="I12">
-        <v>0.8818899137893936</v>
+        <v>0.5520886972447414</v>
       </c>
       <c r="J12">
-        <v>0.413217575230135</v>
+        <v>0.7074649274631213</v>
       </c>
       <c r="K12">
-        <v>0.692719453421347</v>
+        <v>1.973390684614373</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.590979545886654</v>
+        <v>1.654493430059233</v>
       </c>
       <c r="C13">
-        <v>0.1237434530047494</v>
+        <v>0.369490253017716</v>
       </c>
       <c r="D13">
-        <v>0.2774814734306119</v>
+        <v>0.464805644387809</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.897046857100705</v>
+        <v>1.607066879755209</v>
       </c>
       <c r="G13">
-        <v>1.143274232141266</v>
+        <v>1.01004843972872</v>
       </c>
       <c r="H13">
-        <v>1.092588325164371</v>
+        <v>0.6251863263502031</v>
       </c>
       <c r="I13">
-        <v>0.8819999044284685</v>
+        <v>0.5512023385642095</v>
       </c>
       <c r="J13">
-        <v>0.4123643493859674</v>
+        <v>0.7036184095188389</v>
       </c>
       <c r="K13">
-        <v>0.689707080626107</v>
+        <v>1.962414449464404</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5826547311361026</v>
+        <v>1.624498074549507</v>
       </c>
       <c r="C14">
-        <v>0.121924126315804</v>
+        <v>0.3626471808927363</v>
       </c>
       <c r="D14">
-        <v>0.2754760008315884</v>
+        <v>0.4565192572592878</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.894654026625219</v>
+        <v>1.58828629015224</v>
       </c>
       <c r="G14">
-        <v>1.14205203934047</v>
+        <v>0.999007680775307</v>
       </c>
       <c r="H14">
-        <v>1.092896388354802</v>
+        <v>0.6215931085452127</v>
       </c>
       <c r="I14">
-        <v>0.8823707560794745</v>
+        <v>0.548356933034583</v>
       </c>
       <c r="J14">
-        <v>0.4095873541466375</v>
+        <v>0.6911089177636711</v>
       </c>
       <c r="K14">
-        <v>0.6798861558757494</v>
+        <v>1.926663594986053</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5775574877781651</v>
+        <v>1.606150999314906</v>
       </c>
       <c r="C15">
-        <v>0.1208102207547768</v>
+        <v>0.3584640152854206</v>
       </c>
       <c r="D15">
-        <v>0.2742496339306797</v>
+        <v>0.4514540734535046</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.89320882237314</v>
+        <v>1.576865055861205</v>
       </c>
       <c r="G15">
-        <v>1.141317465543025</v>
+        <v>0.992307188216671</v>
       </c>
       <c r="H15">
-        <v>1.09309498046882</v>
+        <v>0.6194244709541579</v>
       </c>
       <c r="I15">
-        <v>0.8826072453103819</v>
+        <v>0.5466483578961814</v>
       </c>
       <c r="J15">
-        <v>0.4078906345173294</v>
+        <v>0.683472804259381</v>
       </c>
       <c r="K15">
-        <v>0.673872927375669</v>
+        <v>1.9047990233382</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5483773619204442</v>
+        <v>1.501385792546273</v>
       </c>
       <c r="C16">
-        <v>0.1144343137687542</v>
+        <v>0.3346135912685497</v>
       </c>
       <c r="D16">
-        <v>0.2672531933570497</v>
+        <v>0.4225801914940917</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.885240520811593</v>
+        <v>1.512632150080051</v>
       </c>
       <c r="G16">
-        <v>1.137323060056758</v>
+        <v>0.9548296338826674</v>
       </c>
       <c r="H16">
-        <v>1.094384633053949</v>
+        <v>0.6074765484281244</v>
       </c>
       <c r="I16">
-        <v>0.8841053755035233</v>
+        <v>0.5373664121301189</v>
       </c>
       <c r="J16">
-        <v>0.3982327864708708</v>
+        <v>0.6400981015495262</v>
       </c>
       <c r="K16">
-        <v>0.6394501657024421</v>
+        <v>1.779990929945654</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5305034858357658</v>
+        <v>1.437425435086766</v>
       </c>
       <c r="C17">
-        <v>0.1105295454550514</v>
+        <v>0.3200829183275005</v>
       </c>
       <c r="D17">
-        <v>0.2629891623092533</v>
+        <v>0.4049949923909821</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.88063179623056</v>
+        <v>1.474265719446123</v>
       </c>
       <c r="G17">
-        <v>1.135064292212761</v>
+        <v>0.9326232323123946</v>
       </c>
       <c r="H17">
-        <v>1.095311010843005</v>
+        <v>0.6005584897186935</v>
       </c>
       <c r="I17">
-        <v>0.8851518101418776</v>
+        <v>0.5321089371717065</v>
       </c>
       <c r="J17">
-        <v>0.3923662465010693</v>
+        <v>0.613813013188107</v>
       </c>
       <c r="K17">
-        <v>0.6183658893984614</v>
+        <v>1.703829885230448</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5202330206730608</v>
+        <v>1.4007415761169</v>
       </c>
       <c r="C18">
-        <v>0.1082860714794549</v>
+        <v>0.3117593448739342</v>
       </c>
       <c r="D18">
-        <v>0.2605469415718744</v>
+        <v>0.3949243403099274</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.878083624789241</v>
+        <v>1.452561529101175</v>
       </c>
       <c r="G18">
-        <v>1.133835426907879</v>
+        <v>0.9201252156765776</v>
       </c>
       <c r="H18">
-        <v>1.095893507544744</v>
+        <v>0.5967243797074673</v>
       </c>
       <c r="I18">
-        <v>0.8858004490424989</v>
+        <v>0.5292386826479714</v>
       </c>
       <c r="J18">
-        <v>0.389013333999003</v>
+        <v>0.5988061016535653</v>
       </c>
       <c r="K18">
-        <v>0.6062510068888116</v>
+        <v>1.660160676050793</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5167573668945806</v>
+        <v>1.388338130721394</v>
       </c>
       <c r="C19">
-        <v>0.1075268901224149</v>
+        <v>0.3089467093970768</v>
       </c>
       <c r="D19">
-        <v>0.2597218254531128</v>
+        <v>0.3915218396524267</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.87723847801314</v>
+        <v>1.44527354481859</v>
       </c>
       <c r="G19">
-        <v>1.133431420072966</v>
+        <v>0.9159394730415329</v>
       </c>
       <c r="H19">
-        <v>1.096099259368827</v>
+        <v>0.5954505381284747</v>
       </c>
       <c r="I19">
-        <v>0.8860280924976252</v>
+        <v>0.5282926403540529</v>
       </c>
       <c r="J19">
-        <v>0.3878817617006263</v>
+        <v>0.5937434991636081</v>
       </c>
       <c r="K19">
-        <v>0.6021512285540211</v>
+        <v>1.645397383951064</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5324051463537955</v>
+        <v>1.44422310828628</v>
       </c>
       <c r="C20">
-        <v>0.1109449616972142</v>
+        <v>0.32162614063364</v>
       </c>
       <c r="D20">
-        <v>0.2634420064202061</v>
+        <v>0.4068623552035149</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.8811117772822</v>
+        <v>1.4783118994538</v>
       </c>
       <c r="G20">
-        <v>1.135297461523123</v>
+        <v>0.9349584237562709</v>
       </c>
       <c r="H20">
-        <v>1.09520725529282</v>
+        <v>0.6012797861723129</v>
       </c>
       <c r="I20">
-        <v>0.8850355749445953</v>
+        <v>0.5326525471201791</v>
       </c>
       <c r="J20">
-        <v>0.3929885375789723</v>
+        <v>0.6165993941323649</v>
       </c>
       <c r="K20">
-        <v>0.6206090829429058</v>
+        <v>1.711922953503773</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5850995261564549</v>
+        <v>1.633302973712205</v>
       </c>
       <c r="C21">
-        <v>0.12245840570111</v>
+        <v>0.3646553856809192</v>
       </c>
       <c r="D21">
-        <v>0.2760646311338348</v>
+        <v>0.458950969539984</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.89535259174238</v>
+        <v>1.593785316925818</v>
       </c>
       <c r="G21">
-        <v>1.142408097362733</v>
+        <v>1.00223755367486</v>
       </c>
       <c r="H21">
-        <v>1.092803840588644</v>
+        <v>0.6226417518315799</v>
       </c>
       <c r="I21">
-        <v>0.8822598828999233</v>
+        <v>0.5491855047949201</v>
       </c>
       <c r="J21">
-        <v>0.4104021348709779</v>
+        <v>0.6947777302330564</v>
       </c>
       <c r="K21">
-        <v>0.682770305970763</v>
+        <v>1.937157357996284</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6196257852151916</v>
+        <v>1.758013219011502</v>
       </c>
       <c r="C22">
-        <v>0.1300048051198814</v>
+        <v>0.3931459591901501</v>
       </c>
       <c r="D22">
-        <v>0.2844057536617868</v>
+        <v>0.4934537726888948</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.905575874166757</v>
+        <v>1.67289226366465</v>
       </c>
       <c r="G22">
-        <v>1.14768403580166</v>
+        <v>1.04895823852425</v>
       </c>
       <c r="H22">
-        <v>1.091675862290145</v>
+        <v>0.6380320152859014</v>
       </c>
       <c r="I22">
-        <v>0.8808633343313801</v>
+        <v>0.5615081713917789</v>
       </c>
       <c r="J22">
-        <v>0.4219739522318662</v>
+        <v>0.7470290092825564</v>
       </c>
       <c r="K22">
-        <v>0.7235027173427966</v>
+        <v>2.085843333093493</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6011905977173626</v>
+        <v>1.691338601632395</v>
       </c>
       <c r="C23">
-        <v>0.1259751679685337</v>
+        <v>0.3779029588433218</v>
       </c>
       <c r="D23">
-        <v>0.2799455927567749</v>
+        <v>0.4749933692692139</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.900035594670442</v>
+        <v>1.630317814512352</v>
       </c>
       <c r="G23">
-        <v>1.144810516033871</v>
+        <v>1.023755310744406</v>
       </c>
       <c r="H23">
-        <v>1.092237345724484</v>
+        <v>0.6296801349931229</v>
       </c>
       <c r="I23">
-        <v>0.8815704387487173</v>
+        <v>0.5547848926545669</v>
       </c>
       <c r="J23">
-        <v>0.4157803396744555</v>
+        <v>0.7190272558234057</v>
       </c>
       <c r="K23">
-        <v>0.7017534418205287</v>
+        <v>2.006337610096807</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5315453885850445</v>
+        <v>1.441149608953907</v>
       </c>
       <c r="C24">
-        <v>0.1107571475619693</v>
+        <v>0.320928356134857</v>
       </c>
       <c r="D24">
-        <v>0.2632372468509061</v>
+        <v>0.4060179987658614</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.880894461865211</v>
+        <v>1.476481525732964</v>
       </c>
       <c r="G24">
-        <v>1.135191828493845</v>
+        <v>0.9339018499196925</v>
       </c>
       <c r="H24">
-        <v>1.095254007708746</v>
+        <v>0.6009532435720359</v>
       </c>
       <c r="I24">
-        <v>0.8850879783893788</v>
+        <v>0.5324063081612138</v>
       </c>
       <c r="J24">
-        <v>0.3927071379976468</v>
+        <v>0.6153393468336787</v>
       </c>
       <c r="K24">
-        <v>0.6195949140942787</v>
+        <v>1.708263716414706</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4568098150937203</v>
+        <v>1.175174489265117</v>
       </c>
       <c r="C25">
-        <v>0.09443553596443621</v>
+        <v>0.2607443783417125</v>
       </c>
       <c r="D25">
-        <v>0.2456100567082729</v>
+        <v>0.3332616412323119</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.864170622281549</v>
+        <v>1.324234874430687</v>
       </c>
       <c r="G25">
-        <v>1.127503320700185</v>
+        <v>0.8473294584966879</v>
       </c>
       <c r="H25">
-        <v>1.100406589609989</v>
+        <v>0.5754433074085483</v>
       </c>
       <c r="I25">
-        <v>0.8906691391243342</v>
+        <v>0.5140725598284916</v>
       </c>
       <c r="J25">
-        <v>0.3686352694350319</v>
+        <v>0.507682917221473</v>
       </c>
       <c r="K25">
-        <v>0.531442616872738</v>
+        <v>1.391838075756056</v>
       </c>
       <c r="L25">
         <v>0</v>
